--- a/ref/ingestion/calibrated/uruguay/model_input_variables_uruguay_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/uruguay/model_input_variables_uruguay_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="K114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="L114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="M114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="N114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="O114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="P114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="Q114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="R114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="S114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="T114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="U114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="V114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="W114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="X114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="Y114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="Z114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AA114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AB114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AC114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AD114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AE114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AF114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AG114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AH114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AI114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AJ114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AK114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AL114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AM114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AN114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AO114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AP114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AQ114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AR114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
       <c r="AS114" t="n">
-        <v>48027432.05</v>
+        <v>1270.335465</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/uruguay/model_input_variables_uruguay_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/uruguay/model_input_variables_uruguay_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="K100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="L100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="M100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="N100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="O100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="P100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="Q100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="R100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="S100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="T100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="U100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="V100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="W100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="X100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="Y100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="Z100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AA100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AB100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AC100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AD100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AE100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AF100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AG100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AH100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AI100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AJ100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AK100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AL100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AM100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AN100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AO100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AP100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AQ100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AR100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
       <c r="AS100" t="n">
-        <v>732099.8942</v>
+        <v>98191.44339</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="K101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="L101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="M101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="N101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="O101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="P101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="Q101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="R101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="S101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="T101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="U101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="V101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="W101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="X101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="Y101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="Z101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AA101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AB101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AC101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AD101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AE101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AF101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AG101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AH101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AI101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AJ101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AK101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AL101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AM101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AN101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AO101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AP101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AQ101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AR101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
       <c r="AS101" t="n">
-        <v>3194134.73</v>
+        <v>319413.473</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="K103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="L103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="M103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="N103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="O103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="P103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="Q103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="R103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="S103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="T103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="U103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="V103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="W103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="X103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="Y103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="Z103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AA103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AB103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AC103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AD103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AE103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AF103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AG103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AH103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AI103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AJ103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AK103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AL103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AM103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AN103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AO103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AP103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AQ103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AR103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
       <c r="AS103" t="n">
-        <v>50317.66789</v>
+        <v>50278.36372</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="K105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="L105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="M105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="N105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="O105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="P105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="Q105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="R105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="S105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="T105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="U105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="V105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="W105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="X105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="Y105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="Z105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AA105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AB105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AC105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AD105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AE105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AF105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AG105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AH105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AI105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AJ105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AK105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AL105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AM105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AN105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AO105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AP105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AQ105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AR105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
       <c r="AS105" t="n">
-        <v>93262.65411</v>
+        <v>24248.29007</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="K106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="L106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="M106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="N106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="O106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="P106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="Q106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="R106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="S106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="T106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="U106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="V106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="W106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="X106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="Y106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="Z106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AA106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AB106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AC106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AD106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AE106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AF106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AG106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AH106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AI106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AJ106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AK106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AL106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AM106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AN106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AO106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AP106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AQ106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AR106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
       <c r="AS106" t="n">
-        <v>419187.3955</v>
+        <v>19188.73298</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="K107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="L107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="M107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="N107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="O107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="P107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="Q107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="R107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="S107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="T107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="U107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="V107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="W107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="X107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="Y107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="Z107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AA107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AB107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AC107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AD107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AE107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AF107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AG107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AH107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AI107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AJ107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AK107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AL107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AM107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AN107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AO107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AP107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AQ107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AR107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
       <c r="AS107" t="n">
-        <v>328631.9837</v>
+        <v>657263.9674</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="K115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="L115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="M115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="N115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="O115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="P115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="Q115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="R115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="S115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="T115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="U115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="V115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="W115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="X115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="Y115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="Z115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AA115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AB115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AC115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AD115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AE115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AF115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AG115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AH115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AI115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AJ115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AK115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AL115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AM115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AN115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AO115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AP115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AQ115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AR115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
       <c r="AS115" t="n">
-        <v>120736.5632</v>
+        <v>1207365.632</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/uruguay/model_input_variables_uruguay_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/uruguay/model_input_variables_uruguay_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="K100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="L100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="M100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="N100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="O100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="P100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="Q100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="R100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="S100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="T100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="U100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="V100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="W100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="X100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="Y100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="Z100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AA100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AB100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AC100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AD100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AE100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AF100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AG100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AH100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AI100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AJ100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AK100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AL100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AM100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AN100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AO100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AP100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AQ100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AR100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
       <c r="AS100">
-        <v>2078608.809</v>
+        <v>98191.44339</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="K101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="L101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="M101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="N101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="O101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="P101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="Q101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="R101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="S101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="T101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="U101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="V101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="W101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="X101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="Y101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="Z101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AA101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AB101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AC101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AD101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AE101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AF101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AG101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AH101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AI101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AJ101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AK101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AL101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AM101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AN101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AO101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AP101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AQ101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AR101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
       <c r="AS101">
-        <v>366967.7287</v>
+        <v>319413.473</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="K102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="L102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="M102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="N102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="O102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="P102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="Q102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="R102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="S102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="T102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="U102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="V102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="W102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="X102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="Y102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="Z102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AA102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AB102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AC102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AD102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AE102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AF102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AG102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AH102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AI102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AJ102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AK102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AL102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AM102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AN102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AO102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AP102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AQ102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AR102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
       <c r="AS102">
-        <v>110462.5486</v>
+        <v>174443.0271</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="K103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="L103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="M103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="N103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="O103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="P103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="Q103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="R103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="S103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="T103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="U103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="V103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="W103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="X103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="Y103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="Z103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AA103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AB103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AC103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AD103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AE103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AF103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AG103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AH103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AI103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AJ103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AK103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AL103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AM103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AN103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AO103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AP103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AQ103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AR103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
       <c r="AS103">
-        <v>11706.15917</v>
+        <v>50278.36372</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="K104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="L104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="M104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="N104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="O104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="P104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="Q104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="R104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="S104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="T104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="U104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="V104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="W104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="X104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="Y104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="Z104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AA104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AB104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AC104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AD104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AE104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AF104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AG104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AH104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AI104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AJ104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AK104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AL104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AM104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AN104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AO104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AP104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AQ104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AR104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
       <c r="AS104">
-        <v>258822.7209</v>
+        <v>75531.87953000001</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="K105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="L105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="M105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="N105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="O105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="P105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="Q105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="R105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="S105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="T105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="U105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="V105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="W105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="X105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="Y105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="Z105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AA105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AB105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AC105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AD105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AE105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AF105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AG105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AH105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AI105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AJ105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AK105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AL105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AM105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AN105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AO105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AP105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AQ105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AR105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
       <c r="AS105">
-        <v>641412.9877000001</v>
+        <v>24248.29007</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="K106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="L106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="M106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="N106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="O106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="P106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="Q106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="R106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="S106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="T106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="U106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="V106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="W106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="X106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="Y106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="Z106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AA106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AB106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AC106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AD106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AE106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AF106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AG106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AH106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AI106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AJ106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AK106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AL106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AM106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AN106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AO106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AP106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AQ106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AR106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
       <c r="AS106">
-        <v>257042.415</v>
+        <v>19188.73298</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="K107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="L107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="M107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="N107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="O107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="P107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="Q107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="R107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="S107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="T107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="U107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="V107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="W107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="X107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="Y107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="Z107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AA107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AB107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AC107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AD107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AE107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AF107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AG107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AH107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AI107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AJ107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AK107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AL107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AM107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AN107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AO107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AP107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AQ107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AR107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
       <c r="AS107">
-        <v>217516.6882</v>
+        <v>657263.9674</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="K114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="L114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="M114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="N114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="O114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="P114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="Q114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="R114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="S114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="T114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="U114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="V114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="W114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="X114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="Y114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="Z114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AA114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AB114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AC114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AD114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AE114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AF114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AG114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AH114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AI114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AJ114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AK114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AL114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AM114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AN114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AO114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AP114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AQ114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AR114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
       <c r="AS114">
-        <v>9656.660911999999</v>
+        <v>1270.335465</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="K115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="L115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="M115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="N115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="O115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="P115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="Q115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="R115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="S115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="T115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="U115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="V115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="W115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="X115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="Y115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="Z115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AA115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AB115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AC115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AD115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AE115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AF115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AG115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AH115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AI115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AJ115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AK115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AL115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AM115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AN115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AO115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AP115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AQ115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AR115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
       <c r="AS115">
-        <v>40829.36126</v>
+        <v>1207365.632</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/uruguay/model_input_variables_uruguay_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/uruguay/model_input_variables_uruguay_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.1342909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1.045417239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.081542357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.038026633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.9101450639999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.920103739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.968886658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.049579401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.006763033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.975031754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.036010557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.01513662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.995964684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>2078608.809</v>
+        <v>2534256.34304261</v>
       </c>
       <c r="K96">
-        <v>2078608.809</v>
+        <v>2257853.21154388</v>
       </c>
       <c r="L96">
-        <v>2078608.809</v>
+        <v>3068194.20122837</v>
       </c>
       <c r="M96">
-        <v>2078608.809</v>
+        <v>2559998.69338803</v>
       </c>
       <c r="N96">
-        <v>2078608.809</v>
+        <v>1477767.0178468</v>
       </c>
       <c r="O96">
-        <v>2078608.809</v>
+        <v>2078608.80881372</v>
       </c>
       <c r="P96">
-        <v>2078608.809</v>
+        <v>2078609</v>
       </c>
       <c r="Q96">
-        <v>2078608.809</v>
+        <v>2241714.52425072</v>
       </c>
       <c r="R96">
-        <v>2078608.809</v>
+        <v>2417618.70954885</v>
       </c>
       <c r="S96">
-        <v>2078608.809</v>
+        <v>2607325.84882291</v>
       </c>
       <c r="T96">
-        <v>2078608.809</v>
+        <v>2811919.04045477</v>
       </c>
       <c r="U96">
-        <v>2078608.809</v>
+        <v>3032566.37203275</v>
       </c>
       <c r="V96">
-        <v>2078608.809</v>
+        <v>3270527.58933504</v>
       </c>
       <c r="W96">
-        <v>2078608.809</v>
+        <v>3527161.288619</v>
       </c>
       <c r="X96">
-        <v>2078608.809</v>
+        <v>3803932.67327915</v>
       </c>
       <c r="Y96">
-        <v>2078608.809</v>
+        <v>4102421.91915927</v>
       </c>
       <c r="Z96">
-        <v>2078608.809</v>
+        <v>4424333.19627879</v>
       </c>
       <c r="AA96">
-        <v>2078608.809</v>
+        <v>4771504.39848128</v>
       </c>
       <c r="AB96">
-        <v>2078608.809</v>
+        <v>5145917.63655487</v>
       </c>
       <c r="AC96">
-        <v>2078608.809</v>
+        <v>5549710.55473299</v>
       </c>
       <c r="AD96">
-        <v>2078608.809</v>
+        <v>5985188.53518505</v>
       </c>
       <c r="AE96">
-        <v>2078608.809</v>
+        <v>6454837.8601763</v>
       </c>
       <c r="AF96">
-        <v>2078608.809</v>
+        <v>6961339.90704392</v>
       </c>
       <c r="AG96">
-        <v>2078608.809</v>
+        <v>7507586.45703281</v>
       </c>
       <c r="AH96">
-        <v>2078608.809</v>
+        <v>8096696.20539431</v>
       </c>
       <c r="AI96">
-        <v>2078608.809</v>
+        <v>8732032.567009039</v>
       </c>
       <c r="AJ96">
-        <v>2078608.809</v>
+        <v>9417222.87919203</v>
       </c>
       <c r="AK96">
-        <v>2078608.809</v>
+        <v>10156179.1113148</v>
       </c>
       <c r="AL96">
-        <v>2078608.809</v>
+        <v>10953120.1994825</v>
       </c>
       <c r="AM96">
-        <v>2078608.809</v>
+        <v>11812596.1337817</v>
       </c>
       <c r="AN96">
-        <v>2078608.809</v>
+        <v>12739513.9356206</v>
       </c>
       <c r="AO96">
-        <v>2078608.809</v>
+        <v>13739165.6734745</v>
       </c>
       <c r="AP96">
-        <v>2078608.809</v>
+        <v>14817258.6769877</v>
       </c>
       <c r="AQ96">
-        <v>2078608.809</v>
+        <v>15979948.1219331</v>
       </c>
       <c r="AR96">
-        <v>2078608.809</v>
+        <v>17233872.1720682</v>
       </c>
       <c r="AS96">
-        <v>2078608.809</v>
+        <v>18586189.8785224</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>366967.7287</v>
+        <v>316495.135174047</v>
       </c>
       <c r="K97">
-        <v>366967.7287</v>
+        <v>313703.903806125</v>
       </c>
       <c r="L97">
-        <v>366967.7287</v>
+        <v>354868.034857225</v>
       </c>
       <c r="M97">
-        <v>366967.7287</v>
+        <v>357764.019752273</v>
       </c>
       <c r="N97">
-        <v>366967.7287</v>
+        <v>374375.834073448</v>
       </c>
       <c r="O97">
-        <v>366967.7287</v>
+        <v>366967.728716802</v>
       </c>
       <c r="P97">
-        <v>366967.7287</v>
+        <v>366967.7</v>
       </c>
       <c r="Q97">
-        <v>366967.7287</v>
+        <v>382145.217726843</v>
       </c>
       <c r="R97">
-        <v>366967.7287</v>
+        <v>397950.466571027</v>
       </c>
       <c r="S97">
-        <v>366967.7287</v>
+        <v>414409.409035956</v>
       </c>
       <c r="T97">
-        <v>366967.7287</v>
+        <v>431549.081415334</v>
       </c>
       <c r="U97">
-        <v>366967.7287</v>
+        <v>449397.638204348</v>
       </c>
       <c r="V97">
-        <v>366967.7287</v>
+        <v>467984.398347675</v>
       </c>
       <c r="W97">
-        <v>366967.7287</v>
+        <v>487339.893400258</v>
       </c>
       <c r="X97">
-        <v>366967.7287</v>
+        <v>507495.917679998</v>
       </c>
       <c r="Y97">
-        <v>366967.7287</v>
+        <v>528485.5804947061</v>
       </c>
       <c r="Z97">
-        <v>366967.7287</v>
+        <v>550343.360529132</v>
       </c>
       <c r="AA97">
-        <v>366967.7287</v>
+        <v>573105.162481406</v>
       </c>
       <c r="AB97">
-        <v>366967.7287</v>
+        <v>596808.37604191</v>
       </c>
       <c r="AC97">
-        <v>366967.7287</v>
+        <v>621491.937311484</v>
       </c>
       <c r="AD97">
-        <v>366967.7287</v>
+        <v>647196.392759839</v>
       </c>
       <c r="AE97">
-        <v>366967.7287</v>
+        <v>673963.965829244</v>
       </c>
       <c r="AF97">
-        <v>366967.7287</v>
+        <v>701838.6262928949</v>
       </c>
       <c r="AG97">
-        <v>366967.7287</v>
+        <v>730866.162481894</v>
       </c>
       <c r="AH97">
-        <v>366967.7287</v>
+        <v>761094.256499485</v>
       </c>
       <c r="AI97">
-        <v>366967.7287</v>
+        <v>792572.562546092</v>
       </c>
       <c r="AJ97">
-        <v>366967.7287</v>
+        <v>825352.788483832</v>
       </c>
       <c r="AK97">
-        <v>366967.7287</v>
+        <v>859488.78077447</v>
       </c>
       <c r="AL97">
-        <v>366967.7287</v>
+        <v>895036.612930345</v>
       </c>
       <c r="AM97">
-        <v>366967.7287</v>
+        <v>932054.67762357</v>
       </c>
       <c r="AN97">
-        <v>366967.7287</v>
+        <v>970603.782604796</v>
       </c>
       <c r="AO97">
-        <v>366967.7287</v>
+        <v>1010747.2505891</v>
       </c>
       <c r="AP97">
-        <v>366967.7287</v>
+        <v>1052551.02327312</v>
       </c>
       <c r="AQ97">
-        <v>366967.7287</v>
+        <v>1096083.76965416</v>
       </c>
       <c r="AR97">
-        <v>366967.7287</v>
+        <v>1141416.99882946</v>
       </c>
       <c r="AS97">
-        <v>366967.7287</v>
+        <v>1188625.17746058</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>110462.5486</v>
+        <v>188203.921257018</v>
       </c>
       <c r="K98">
-        <v>110462.5486</v>
+        <v>166373.313145954</v>
       </c>
       <c r="L98">
-        <v>110462.5486</v>
+        <v>156991.008936823</v>
       </c>
       <c r="M98">
-        <v>110462.5486</v>
+        <v>130887.706145701</v>
       </c>
       <c r="N98">
-        <v>110462.5486</v>
+        <v>126884.873945031</v>
       </c>
       <c r="O98">
-        <v>110462.5486</v>
+        <v>110462.548568882</v>
       </c>
       <c r="P98">
-        <v>110462.5486</v>
+        <v>110462.5</v>
       </c>
       <c r="Q98">
-        <v>110462.5486</v>
+        <v>111427.070700875</v>
       </c>
       <c r="R98">
-        <v>110462.5486</v>
+        <v>112400.064139213</v>
       </c>
       <c r="S98">
-        <v>110462.5486</v>
+        <v>113381.553863283</v>
       </c>
       <c r="T98">
-        <v>110462.5486</v>
+        <v>114371.614063589</v>
       </c>
       <c r="U98">
-        <v>110462.5486</v>
+        <v>115370.319578469</v>
       </c>
       <c r="V98">
-        <v>110462.5486</v>
+        <v>116377.745899764</v>
       </c>
       <c r="W98">
-        <v>110462.5486</v>
+        <v>117393.969178512</v>
       </c>
       <c r="X98">
-        <v>110462.5486</v>
+        <v>118419.066230716</v>
       </c>
       <c r="Y98">
-        <v>110462.5486</v>
+        <v>119453.11454314</v>
       </c>
       <c r="Z98">
-        <v>110462.5486</v>
+        <v>120496.192279173</v>
       </c>
       <c r="AA98">
-        <v>110462.5486</v>
+        <v>121548.378284736</v>
       </c>
       <c r="AB98">
-        <v>110462.5486</v>
+        <v>122609.75209424</v>
       </c>
       <c r="AC98">
-        <v>110462.5486</v>
+        <v>123680.393936599</v>
       </c>
       <c r="AD98">
-        <v>110462.5486</v>
+        <v>124760.384741297</v>
       </c>
       <c r="AE98">
-        <v>110462.5486</v>
+        <v>125849.806144501</v>
       </c>
       <c r="AF98">
-        <v>110462.5486</v>
+        <v>126948.740495233</v>
       </c>
       <c r="AG98">
-        <v>110462.5486</v>
+        <v>128057.270861599</v>
       </c>
       <c r="AH98">
-        <v>110462.5486</v>
+        <v>129175.481037062</v>
       </c>
       <c r="AI98">
-        <v>110462.5486</v>
+        <v>130303.455546781</v>
       </c>
       <c r="AJ98">
-        <v>110462.5486</v>
+        <v>131441.279653995</v>
       </c>
       <c r="AK98">
-        <v>110462.5486</v>
+        <v>132589.039366475</v>
       </c>
       <c r="AL98">
-        <v>110462.5486</v>
+        <v>133746.821443017</v>
       </c>
       <c r="AM98">
-        <v>110462.5486</v>
+        <v>134914.713400008</v>
       </c>
       <c r="AN98">
-        <v>110462.5486</v>
+        <v>136092.803518035</v>
       </c>
       <c r="AO98">
-        <v>110462.5486</v>
+        <v>137281.180848563</v>
       </c>
       <c r="AP98">
-        <v>110462.5486</v>
+        <v>138479.935220663</v>
       </c>
       <c r="AQ98">
-        <v>110462.5486</v>
+        <v>139689.157247802</v>
       </c>
       <c r="AR98">
-        <v>110462.5486</v>
+        <v>140908.938334697</v>
       </c>
       <c r="AS98">
-        <v>110462.5486</v>
+        <v>142139.370684219</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>11706.15917</v>
+        <v>14646.3198735509</v>
       </c>
       <c r="K99">
-        <v>11706.15917</v>
+        <v>12153.7571055836</v>
       </c>
       <c r="L99">
-        <v>11706.15917</v>
+        <v>15512.2712575416</v>
       </c>
       <c r="M99">
-        <v>11706.15917</v>
+        <v>14807.0352793091</v>
       </c>
       <c r="N99">
-        <v>11706.15917</v>
+        <v>12802.2952245109</v>
       </c>
       <c r="O99">
-        <v>11706.15917</v>
+        <v>11706.1591724082</v>
       </c>
       <c r="P99">
-        <v>11706.15917</v>
+        <v>11706.16</v>
       </c>
       <c r="Q99">
-        <v>11706.15917</v>
+        <v>11634.5842544761</v>
       </c>
       <c r="R99">
-        <v>11706.15917</v>
+        <v>11563.4461492498</v>
       </c>
       <c r="S99">
-        <v>11706.15917</v>
+        <v>11492.7430084283</v>
       </c>
       <c r="T99">
-        <v>11706.15917</v>
+        <v>11422.4721724802</v>
       </c>
       <c r="U99">
-        <v>11706.15917</v>
+        <v>11352.630998135</v>
       </c>
       <c r="V99">
-        <v>11706.15917</v>
+        <v>11283.2168582848</v>
       </c>
       <c r="W99">
-        <v>11706.15917</v>
+        <v>11214.2271418842</v>
       </c>
       <c r="X99">
-        <v>11706.15917</v>
+        <v>11145.659253853</v>
       </c>
       <c r="Y99">
-        <v>11706.15917</v>
+        <v>11077.5106149782</v>
       </c>
       <c r="Z99">
-        <v>11706.15917</v>
+        <v>11009.7786618171</v>
       </c>
       <c r="AA99">
-        <v>11706.15917</v>
+        <v>10942.4608466007</v>
       </c>
       <c r="AB99">
-        <v>11706.15917</v>
+        <v>10875.5546371382</v>
       </c>
       <c r="AC99">
-        <v>11706.15917</v>
+        <v>10809.0575167213</v>
       </c>
       <c r="AD99">
-        <v>11706.15917</v>
+        <v>10742.9669840299</v>
       </c>
       <c r="AE99">
-        <v>11706.15917</v>
+        <v>10677.2805530379</v>
       </c>
       <c r="AF99">
-        <v>11706.15917</v>
+        <v>10611.9957529197</v>
       </c>
       <c r="AG99">
-        <v>11706.15917</v>
+        <v>10547.1101279571</v>
       </c>
       <c r="AH99">
-        <v>11706.15917</v>
+        <v>10482.6212374472</v>
       </c>
       <c r="AI99">
-        <v>11706.15917</v>
+        <v>10418.5266556103</v>
       </c>
       <c r="AJ99">
-        <v>11706.15917</v>
+        <v>10354.823971499</v>
       </c>
       <c r="AK99">
-        <v>11706.15917</v>
+        <v>10291.5107889072</v>
       </c>
       <c r="AL99">
-        <v>11706.15917</v>
+        <v>10228.58472628</v>
       </c>
       <c r="AM99">
-        <v>11706.15917</v>
+        <v>10166.0434166244</v>
       </c>
       <c r="AN99">
-        <v>11706.15917</v>
+        <v>10103.8845074198</v>
       </c>
       <c r="AO99">
-        <v>11706.15917</v>
+        <v>10042.1056605301</v>
       </c>
       <c r="AP99">
-        <v>11706.15917</v>
+        <v>9980.704552115179</v>
       </c>
       <c r="AQ99">
-        <v>11706.15917</v>
+        <v>9919.678872543749</v>
       </c>
       <c r="AR99">
-        <v>11706.15917</v>
+        <v>9859.026326306521</v>
       </c>
       <c r="AS99">
-        <v>11706.15917</v>
+        <v>9798.74463192974</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>258822.7209</v>
+        <v>6885.29037434593</v>
       </c>
       <c r="K100">
-        <v>258822.7209</v>
+        <v>1853.90042441359</v>
       </c>
       <c r="L100">
-        <v>258822.7209</v>
+        <v>10379.9632348961</v>
       </c>
       <c r="M100">
-        <v>258822.7209</v>
+        <v>76292.6303613034</v>
       </c>
       <c r="N100">
-        <v>258822.7209</v>
+        <v>5100.54986035426</v>
       </c>
       <c r="O100">
-        <v>258822.7209</v>
+        <v>258822.720868412</v>
       </c>
       <c r="P100">
-        <v>258822.7209</v>
+        <v>258822.7</v>
       </c>
       <c r="Q100">
-        <v>258822.7209</v>
+        <v>2883984.5966283</v>
       </c>
       <c r="R100">
-        <v>258822.7209</v>
+        <v>32135385.1636248</v>
       </c>
       <c r="S100">
-        <v>258822.7209</v>
+        <v>358075067.676102</v>
       </c>
       <c r="T100">
-        <v>258822.7209</v>
+        <v>3989924298.04076</v>
       </c>
       <c r="U100">
-        <v>258822.7209</v>
+        <v>44458543308.8464</v>
       </c>
       <c r="V100">
-        <v>258822.7209</v>
+        <v>495388364665.252</v>
       </c>
       <c r="W100">
-        <v>258822.7209</v>
+        <v>5519965648466.96</v>
       </c>
       <c r="X100">
-        <v>258822.7209</v>
+        <v>61507340368893.7</v>
       </c>
       <c r="Y100">
-        <v>258822.7209</v>
+        <v>685358054774421</v>
       </c>
       <c r="Z100">
-        <v>258822.7209</v>
+        <v>7636741573071320</v>
       </c>
       <c r="AA100">
-        <v>258822.7209</v>
+        <v>8.509394680284483E+16</v>
       </c>
       <c r="AB100">
-        <v>258822.7209</v>
+        <v>9.481766160607729E+17</v>
       </c>
       <c r="AC100">
-        <v>258822.7209</v>
+        <v>1.05652508671087E+19</v>
       </c>
       <c r="AD100">
-        <v>258822.7209</v>
+        <v>1.17725457466657E+20</v>
       </c>
       <c r="AE100">
-        <v>258822.7209</v>
+        <v>1.31177986306788E+21</v>
       </c>
       <c r="AF100">
-        <v>258822.7209</v>
+        <v>1.46167740281472E+22</v>
       </c>
       <c r="AG100">
-        <v>258822.7209</v>
+        <v>1.62870378639792E+23</v>
       </c>
       <c r="AH100">
-        <v>258822.7209</v>
+        <v>1.81481633274121E+24</v>
       </c>
       <c r="AI100">
-        <v>258822.7209</v>
+        <v>2.02219602428037E+25</v>
       </c>
       <c r="AJ100">
-        <v>258822.7209</v>
+        <v>2.25327306507025E+26</v>
       </c>
       <c r="AK100">
-        <v>258822.7209</v>
+        <v>2.5107553594256E+27</v>
       </c>
       <c r="AL100">
-        <v>258822.7209</v>
+        <v>2.79766024482605E+28</v>
       </c>
       <c r="AM100">
-        <v>258822.7209</v>
+        <v>3.11734985095113E+29</v>
       </c>
       <c r="AN100">
-        <v>258822.7209</v>
+        <v>3.47357049920451E+30</v>
       </c>
       <c r="AO100">
-        <v>258822.7209</v>
+        <v>3.8704966044355E+31</v>
       </c>
       <c r="AP100">
-        <v>258822.7209</v>
+        <v>4.31277959332551E+32</v>
       </c>
       <c r="AQ100">
-        <v>258822.7209</v>
+        <v>4.80560241269551E+33</v>
       </c>
       <c r="AR100">
-        <v>258822.7209</v>
+        <v>5.35474026649658E+34</v>
       </c>
       <c r="AS100">
-        <v>258822.7209</v>
+        <v>5.96662829323759E+35</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>641412.9877000001</v>
+        <v>560330.329225652</v>
       </c>
       <c r="K101">
-        <v>641412.9877000001</v>
+        <v>468821.377264195</v>
       </c>
       <c r="L101">
-        <v>641412.9877000001</v>
+        <v>567064.402769464</v>
       </c>
       <c r="M101">
-        <v>641412.9877000001</v>
+        <v>598566.1472623521</v>
       </c>
       <c r="N101">
-        <v>641412.9877000001</v>
+        <v>547002.32089145</v>
       </c>
       <c r="O101">
-        <v>641412.9877000001</v>
+        <v>641412.987667316</v>
       </c>
       <c r="P101">
-        <v>641412.9877000001</v>
+        <v>641413</v>
       </c>
       <c r="Q101">
-        <v>641412.9877000001</v>
+        <v>688051.15067416</v>
       </c>
       <c r="R101">
-        <v>641412.9877000001</v>
+        <v>738080.434827537</v>
       </c>
       <c r="S101">
-        <v>641412.9877000001</v>
+        <v>791747.427122885</v>
       </c>
       <c r="T101">
-        <v>641412.9877000001</v>
+        <v>849316.631055508</v>
       </c>
       <c r="U101">
-        <v>641412.9877000001</v>
+        <v>911071.7825869489</v>
       </c>
       <c r="V101">
-        <v>641412.9877000001</v>
+        <v>977317.248567941</v>
       </c>
       <c r="W101">
-        <v>641412.9877000001</v>
+        <v>1048379.52684288</v>
       </c>
       <c r="X101">
-        <v>641412.9877000001</v>
+        <v>1124608.85542931</v>
       </c>
       <c r="Y101">
-        <v>641412.9877000001</v>
+        <v>1206380.93870328</v>
       </c>
       <c r="Z101">
-        <v>641412.9877000001</v>
+        <v>1294098.79909849</v>
       </c>
       <c r="AA101">
-        <v>641412.9877000001</v>
+        <v>1388194.76344534</v>
       </c>
       <c r="AB101">
-        <v>641412.9877000001</v>
+        <v>1489132.59373977</v>
       </c>
       <c r="AC101">
-        <v>641412.9877000001</v>
+        <v>1597409.77284378</v>
       </c>
       <c r="AD101">
-        <v>641412.9877000001</v>
+        <v>1713559.95638272</v>
       </c>
       <c r="AE101">
-        <v>641412.9877000001</v>
+        <v>1838155.602924</v>
       </c>
       <c r="AF101">
-        <v>641412.9877000001</v>
+        <v>1971810.79540018</v>
       </c>
       <c r="AG101">
-        <v>641412.9877000001</v>
+        <v>2115184.26768217</v>
       </c>
       <c r="AH101">
-        <v>641412.9877000001</v>
+        <v>2268982.65121941</v>
       </c>
       <c r="AI101">
-        <v>641412.9877000001</v>
+        <v>2433963.95774832</v>
       </c>
       <c r="AJ101">
-        <v>641412.9877000001</v>
+        <v>2610941.31523396</v>
       </c>
       <c r="AK101">
-        <v>641412.9877000001</v>
+        <v>2800786.97545798</v>
       </c>
       <c r="AL101">
-        <v>641412.9877000001</v>
+        <v>3004436.61300452</v>
       </c>
       <c r="AM101">
-        <v>641412.9877000001</v>
+        <v>3222893.93683217</v>
       </c>
       <c r="AN101">
-        <v>641412.9877000001</v>
+        <v>3457235.63716068</v>
       </c>
       <c r="AO101">
-        <v>641412.9877000001</v>
+        <v>3708616.69205351</v>
       </c>
       <c r="AP101">
-        <v>641412.9877000001</v>
+        <v>3978276.05985039</v>
       </c>
       <c r="AQ101">
-        <v>641412.9877000001</v>
+        <v>4267542.78550563</v>
       </c>
       <c r="AR101">
-        <v>641412.9877000001</v>
+        <v>4577842.55092796</v>
       </c>
       <c r="AS101">
-        <v>641412.9877000001</v>
+        <v>4910704.70160585</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>159599.558092552</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>86514.5792175817</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>2718561.84697057</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>5047641.719508</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>3517796.86653105</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>3257614.66525761</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>3257615</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>14207055.7146199</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>61959572.2877975</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>270217043.925313</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>1178466024.40338</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>5139506192.86974</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>22414327914.0519</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>97752989681.3145</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>426318693483.76</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>1859253911376.19</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>8108546868351.97</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>35362858141088.8</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>154223901792768</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>672598685018309</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>2933326065736801</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>1.279277227206698E+16</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>5.579162313953612E+16</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>2.433174879021816E+17</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>1.061152133376E+18</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>4.627878825631793E+18</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>2.018302725038426E+19</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>8.802187877815534E+19</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>3.83879536380687E+20</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>1.67416897363957E+21</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>7.30135755274498E+21</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>3.18425576822947E+22</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>1.38871226676068E+23</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>6.05642856674132E+23</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>2.6413194339819E+24</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>1.15192778639247E+25</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>257042.415</v>
+        <v>405269.817926233</v>
       </c>
       <c r="K103">
-        <v>257042.415</v>
+        <v>320205.325381345</v>
       </c>
       <c r="L103">
-        <v>257042.415</v>
+        <v>345619.603780426</v>
       </c>
       <c r="M103">
-        <v>257042.415</v>
+        <v>319745.593499205</v>
       </c>
       <c r="N103">
-        <v>257042.415</v>
+        <v>287694.935657306</v>
       </c>
       <c r="O103">
-        <v>257042.415</v>
+        <v>257042.414979356</v>
       </c>
       <c r="P103">
-        <v>257042.415</v>
+        <v>257042.4</v>
       </c>
       <c r="Q103">
-        <v>257042.415</v>
+        <v>251854.310177304</v>
       </c>
       <c r="R103">
-        <v>257042.415</v>
+        <v>246770.93567009</v>
       </c>
       <c r="S103">
-        <v>257042.415</v>
+        <v>241790.162926422</v>
       </c>
       <c r="T103">
-        <v>257042.415</v>
+        <v>236909.921053849</v>
       </c>
       <c r="U103">
-        <v>257042.415</v>
+        <v>232128.180958382</v>
       </c>
       <c r="V103">
-        <v>257042.415</v>
+        <v>227442.954500836</v>
       </c>
       <c r="W103">
-        <v>257042.415</v>
+        <v>222852.293670211</v>
       </c>
       <c r="X103">
-        <v>257042.415</v>
+        <v>218354.289773753</v>
       </c>
       <c r="Y103">
-        <v>257042.415</v>
+        <v>213947.072643361</v>
       </c>
       <c r="Z103">
-        <v>257042.415</v>
+        <v>209628.809858012</v>
       </c>
       <c r="AA103">
-        <v>257042.415</v>
+        <v>205397.705981888</v>
       </c>
       <c r="AB103">
-        <v>257042.415</v>
+        <v>201252.001817868</v>
       </c>
       <c r="AC103">
-        <v>257042.415</v>
+        <v>197189.973676097</v>
       </c>
       <c r="AD103">
-        <v>257042.415</v>
+        <v>193209.932657313</v>
       </c>
       <c r="AE103">
-        <v>257042.415</v>
+        <v>189310.223950643</v>
       </c>
       <c r="AF103">
-        <v>257042.415</v>
+        <v>185489.226145571</v>
       </c>
       <c r="AG103">
-        <v>257042.415</v>
+        <v>181745.350557786</v>
       </c>
       <c r="AH103">
-        <v>257042.415</v>
+        <v>178077.040568651</v>
       </c>
       <c r="AI103">
-        <v>257042.415</v>
+        <v>174482.770977992</v>
       </c>
       <c r="AJ103">
-        <v>257042.415</v>
+        <v>170961.047369954</v>
       </c>
       <c r="AK103">
-        <v>257042.415</v>
+        <v>167510.405491659</v>
       </c>
       <c r="AL103">
-        <v>257042.415</v>
+        <v>164129.4106444</v>
       </c>
       <c r="AM103">
-        <v>257042.415</v>
+        <v>160816.65708713</v>
       </c>
       <c r="AN103">
-        <v>257042.415</v>
+        <v>157570.767451981</v>
       </c>
       <c r="AO103">
-        <v>257042.415</v>
+        <v>154390.392171592</v>
       </c>
       <c r="AP103">
-        <v>257042.415</v>
+        <v>151274.208917983</v>
       </c>
       <c r="AQ103">
-        <v>257042.415</v>
+        <v>148220.922052766</v>
       </c>
       <c r="AR103">
-        <v>257042.415</v>
+        <v>145229.262088447</v>
       </c>
       <c r="AS103">
-        <v>257042.415</v>
+        <v>142297.985160599</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>217516.6882</v>
+        <v>268128.947433071</v>
       </c>
       <c r="K104">
-        <v>217516.6882</v>
+        <v>226084.171053199</v>
       </c>
       <c r="L104">
-        <v>217516.6882</v>
+        <v>252525.920387006</v>
       </c>
       <c r="M104">
-        <v>217516.6882</v>
+        <v>263610.133817231</v>
       </c>
       <c r="N104">
-        <v>217516.6882</v>
+        <v>236710.069376321</v>
       </c>
       <c r="O104">
-        <v>217516.6882</v>
+        <v>217516.688154265</v>
       </c>
       <c r="P104">
-        <v>217516.6882</v>
+        <v>217516.7</v>
       </c>
       <c r="Q104">
-        <v>217516.6882</v>
+        <v>216285.282907823</v>
       </c>
       <c r="R104">
-        <v>217516.6882</v>
+        <v>215060.837179477</v>
       </c>
       <c r="S104">
-        <v>217516.6882</v>
+        <v>213843.323348306</v>
       </c>
       <c r="T104">
-        <v>217516.6882</v>
+        <v>212632.702171086</v>
       </c>
       <c r="U104">
-        <v>217516.6882</v>
+        <v>211428.934626759</v>
       </c>
       <c r="V104">
-        <v>217516.6882</v>
+        <v>210231.981915173</v>
       </c>
       <c r="W104">
-        <v>217516.6882</v>
+        <v>209041.805455837</v>
       </c>
       <c r="X104">
-        <v>217516.6882</v>
+        <v>207858.36688667</v>
       </c>
       <c r="Y104">
-        <v>217516.6882</v>
+        <v>206681.628062772</v>
       </c>
       <c r="Z104">
-        <v>217516.6882</v>
+        <v>205511.551055189</v>
       </c>
       <c r="AA104">
-        <v>217516.6882</v>
+        <v>204348.098149692</v>
       </c>
       <c r="AB104">
-        <v>217516.6882</v>
+        <v>203191.231845563</v>
       </c>
       <c r="AC104">
-        <v>217516.6882</v>
+        <v>202040.914854384</v>
       </c>
       <c r="AD104">
-        <v>217516.6882</v>
+        <v>200897.110098838</v>
       </c>
       <c r="AE104">
-        <v>217516.6882</v>
+        <v>199759.78071151</v>
       </c>
       <c r="AF104">
-        <v>217516.6882</v>
+        <v>198628.890033702</v>
       </c>
       <c r="AG104">
-        <v>217516.6882</v>
+        <v>197504.401614249</v>
       </c>
       <c r="AH104">
-        <v>217516.6882</v>
+        <v>196386.279208347</v>
       </c>
       <c r="AI104">
-        <v>217516.6882</v>
+        <v>195274.486776381</v>
       </c>
       <c r="AJ104">
-        <v>217516.6882</v>
+        <v>194168.988482767</v>
       </c>
       <c r="AK104">
-        <v>217516.6882</v>
+        <v>193069.748694795</v>
       </c>
       <c r="AL104">
-        <v>217516.6882</v>
+        <v>191976.731981481</v>
       </c>
       <c r="AM104">
-        <v>217516.6882</v>
+        <v>190889.903112423</v>
       </c>
       <c r="AN104">
-        <v>217516.6882</v>
+        <v>189809.227056669</v>
       </c>
       <c r="AO104">
-        <v>217516.6882</v>
+        <v>188734.668981585</v>
       </c>
       <c r="AP104">
-        <v>217516.6882</v>
+        <v>187666.194251736</v>
       </c>
       <c r="AQ104">
-        <v>217516.6882</v>
+        <v>186603.768427763</v>
       </c>
       <c r="AR104">
-        <v>217516.6882</v>
+        <v>185547.35726528</v>
       </c>
       <c r="AS104">
-        <v>217516.6882</v>
+        <v>184496.926713765</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>9656.660911999999</v>
+        <v>25481.7333160579</v>
       </c>
       <c r="K111">
-        <v>9656.660911999999</v>
+        <v>19239.7214902114</v>
       </c>
       <c r="L111">
-        <v>9656.660911999999</v>
+        <v>19740.0056989686</v>
       </c>
       <c r="M111">
-        <v>9656.660911999999</v>
+        <v>16686.190462397</v>
       </c>
       <c r="N111">
-        <v>9656.660911999999</v>
+        <v>13516.5301603315</v>
       </c>
       <c r="O111">
-        <v>9656.660911999999</v>
+        <v>9656.66091177182</v>
       </c>
       <c r="P111">
-        <v>9656.660911999999</v>
+        <v>9656.661</v>
       </c>
       <c r="Q111">
-        <v>9656.660911999999</v>
+        <v>9026.13616947465</v>
       </c>
       <c r="R111">
-        <v>9656.660911999999</v>
+        <v>8436.781010527189</v>
       </c>
       <c r="S111">
-        <v>9656.660911999999</v>
+        <v>7885.90737865358</v>
       </c>
       <c r="T111">
-        <v>9656.660911999999</v>
+        <v>7371.0026498385</v>
       </c>
       <c r="U111">
-        <v>9656.660911999999</v>
+        <v>6889.71826006947</v>
       </c>
       <c r="V111">
-        <v>9656.660911999999</v>
+        <v>6439.8589931554</v>
       </c>
       <c r="W111">
-        <v>9656.660911999999</v>
+        <v>6019.3729679893</v>
       </c>
       <c r="X111">
-        <v>9656.660911999999</v>
+        <v>5626.34227958569</v>
       </c>
       <c r="Y111">
-        <v>9656.660911999999</v>
+        <v>5258.97425120472</v>
       </c>
       <c r="Z111">
-        <v>9656.660911999999</v>
+        <v>4915.59325766274</v>
       </c>
       <c r="AA111">
-        <v>9656.660911999999</v>
+        <v>4594.63308253395</v>
       </c>
       <c r="AB111">
-        <v>9656.660911999999</v>
+        <v>4294.62977438314</v>
       </c>
       <c r="AC111">
-        <v>9656.660911999999</v>
+        <v>4014.21496944569</v>
       </c>
       <c r="AD111">
-        <v>9656.660911999999</v>
+        <v>3752.10965029841</v>
       </c>
       <c r="AE111">
-        <v>9656.660911999999</v>
+        <v>3507.11831205355</v>
       </c>
       <c r="AF111">
-        <v>9656.660911999999</v>
+        <v>3278.12350946704</v>
       </c>
       <c r="AG111">
-        <v>9656.660911999999</v>
+        <v>3064.08076008939</v>
       </c>
       <c r="AH111">
-        <v>9656.660911999999</v>
+        <v>2864.01378021184</v>
       </c>
       <c r="AI111">
-        <v>9656.660911999999</v>
+        <v>2677.01003187788</v>
       </c>
       <c r="AJ111">
-        <v>9656.660911999999</v>
+        <v>2502.21656064963</v>
       </c>
       <c r="AK111">
-        <v>9656.660911999999</v>
+        <v>2338.83610514422</v>
       </c>
       <c r="AL111">
-        <v>9656.660911999999</v>
+        <v>2186.12346059528</v>
       </c>
       <c r="AM111">
-        <v>9656.660911999999</v>
+        <v>2043.38207985308</v>
       </c>
       <c r="AN111">
-        <v>9656.660911999999</v>
+        <v>1909.96089631998</v>
       </c>
       <c r="AO111">
-        <v>9656.660911999999</v>
+        <v>1785.25135433003</v>
       </c>
       <c r="AP111">
-        <v>9656.660911999999</v>
+        <v>1668.68463342784</v>
       </c>
       <c r="AQ111">
-        <v>9656.660911999999</v>
+        <v>1559.72905388618</v>
       </c>
       <c r="AR111">
-        <v>9656.660911999999</v>
+        <v>1457.8876516285</v>
       </c>
       <c r="AS111">
-        <v>9656.660911999999</v>
+        <v>1362.69591149513</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>40829.36126</v>
+        <v>57934.3854337242</v>
       </c>
       <c r="K112">
-        <v>40829.36126</v>
+        <v>51186.0326005017</v>
       </c>
       <c r="L112">
-        <v>40829.36126</v>
+        <v>63023.688648593</v>
       </c>
       <c r="M112">
-        <v>40829.36126</v>
+        <v>60652.3492805505</v>
       </c>
       <c r="N112">
-        <v>40829.36126</v>
+        <v>51034.3152706311</v>
       </c>
       <c r="O112">
-        <v>40829.36126</v>
+        <v>40829.361263365</v>
       </c>
       <c r="P112">
-        <v>40829.36126</v>
+        <v>40829.36</v>
       </c>
       <c r="Q112">
-        <v>40829.36126</v>
+        <v>40594.135806065</v>
       </c>
       <c r="R112">
-        <v>40829.36126</v>
+        <v>40360.266774724</v>
       </c>
       <c r="S112">
-        <v>40829.36126</v>
+        <v>40127.745098678</v>
       </c>
       <c r="T112">
-        <v>40829.36126</v>
+        <v>39896.5630156068</v>
       </c>
       <c r="U112">
-        <v>40829.36126</v>
+        <v>39666.7128079101</v>
       </c>
       <c r="V112">
-        <v>40829.36126</v>
+        <v>39438.1868024499</v>
       </c>
       <c r="W112">
-        <v>40829.36126</v>
+        <v>39210.9773702946</v>
       </c>
       <c r="X112">
-        <v>40829.36126</v>
+        <v>38985.0769264637</v>
       </c>
       <c r="Y112">
-        <v>40829.36126</v>
+        <v>38760.4779296751</v>
       </c>
       <c r="Z112">
-        <v>40829.36126</v>
+        <v>38537.1728820931</v>
       </c>
       <c r="AA112">
-        <v>40829.36126</v>
+        <v>38315.1543290782</v>
       </c>
       <c r="AB112">
-        <v>40829.36126</v>
+        <v>38094.4148589382</v>
       </c>
       <c r="AC112">
-        <v>40829.36126</v>
+        <v>37874.9471026809</v>
       </c>
       <c r="AD112">
-        <v>40829.36126</v>
+        <v>37656.743733768</v>
       </c>
       <c r="AE112">
-        <v>40829.36126</v>
+        <v>37439.7974678703</v>
       </c>
       <c r="AF112">
-        <v>40829.36126</v>
+        <v>37224.1010626249</v>
       </c>
       <c r="AG112">
-        <v>40829.36126</v>
+        <v>37009.6473173932</v>
       </c>
       <c r="AH112">
-        <v>40829.36126</v>
+        <v>36796.4290730207</v>
       </c>
       <c r="AI112">
-        <v>40829.36126</v>
+        <v>36584.4392115978</v>
       </c>
       <c r="AJ112">
-        <v>40829.36126</v>
+        <v>36373.6706562221</v>
       </c>
       <c r="AK112">
-        <v>40829.36126</v>
+        <v>36164.1163707626</v>
       </c>
       <c r="AL112">
-        <v>40829.36126</v>
+        <v>35955.7693596245</v>
       </c>
       <c r="AM112">
-        <v>40829.36126</v>
+        <v>35748.6226675154</v>
       </c>
       <c r="AN112">
-        <v>40829.36126</v>
+        <v>35542.6693792137</v>
       </c>
       <c r="AO112">
-        <v>40829.36126</v>
+        <v>35337.9026193374</v>
       </c>
       <c r="AP112">
-        <v>40829.36126</v>
+        <v>35134.3155521145</v>
       </c>
       <c r="AQ112">
-        <v>40829.36126</v>
+        <v>34931.901381155</v>
       </c>
       <c r="AR112">
-        <v>40829.36126</v>
+        <v>34730.6533492241</v>
       </c>
       <c r="AS112">
-        <v>40829.36126</v>
+        <v>34530.5647380162</v>
       </c>
     </row>
     <row r="113" spans="1:45">
